--- a/biology/Médecine/Sterimar/Sterimar.xlsx
+++ b/biology/Médecine/Sterimar/Sterimar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stérimar est un spray d’eau de mer naturel et sans conservateurs conçu par Sofibel-Laboratoires Fumouze. C’est un dispositif médical de classe IIa, marqué CE.
-Stérimar est recommandé pour l’hygiène nasale[1] 
-mais aussi pour décongestionner la muqueuse nasale lors d’épisodes infectieux et allergiques tels que la rhinite[2]
-et la rhinite allergique[3]  (rhume des foins), la sinusite[4],[5]
-ou la rhinopharyngite[6].
+Stérimar est recommandé pour l’hygiène nasale 
+mais aussi pour décongestionner la muqueuse nasale lors d’épisodes infectieux et allergiques tels que la rhinite
+et la rhinite allergique  (rhume des foins), la sinusite,
+ou la rhinopharyngite.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1975 – Lancement de Stérimar en France. C’est le premier spray d’eau de mer isotonique spécialement développé pour l’hygiène nasale.
 2000 – Lancement en Grande-Bretagne. C’est le premier spray d’eau de mer développé pour l’hygiène nasale.
@@ -547,16 +561,52 @@
           <t>Gamme de produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stérimar Hygiène Nasale (Isotonique)
-Stérimar Nez Bouché (Hypertonique)[7]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stérimar Hygiène Nasale (Isotonique)
+Stérimar Nez Bouché (Hypertonique)
 Stérimar Bébé
 Stérimar Manganèse – nez sujets aux allergies
 Stérimar Cuivre – nez sujets aux infections
-Stérimar Soufre – nez sujets aux affections récidivantes
-Specificités par pays
-Au Royaume-Uni, Stérimar Hygiène Nasale (Isotonique) et Stérimar Nez bouché (Hypertonique) sont disponibles en 50 ml et 100 ml.
+Stérimar Soufre – nez sujets aux affections récidivantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sterimar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sterimar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Gamme de produits</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Specificités par pays</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Royaume-Uni, Stérimar Hygiène Nasale (Isotonique) et Stérimar Nez bouché (Hypertonique) sont disponibles en 50 ml et 100 ml.
 </t>
         </is>
       </c>
